--- a/Documentazione sul disallineamento.xlsx
+++ b/Documentazione sul disallineamento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Francesca\Desktop\Universita\SDP\lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1852658-DA24-4DA1-B010-67A6C54332FC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C4C0BA-F254-42B2-AE85-353741E8CAA0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{1530F8AE-98B8-45DB-A08F-1992DCDB7C6B}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="40">
   <si>
     <t>t1</t>
   </si>
@@ -141,13 +141,22 @@
   </si>
   <si>
     <t>Si crea un disallineamento davvero brutto, con più nodi ho visto (sempre su excell) che si genera un disallineamento più vistoso. </t>
+  </si>
+  <si>
+    <t>v6+v1+v9</t>
+  </si>
+  <si>
+    <t>v7+v2+v10</t>
+  </si>
+  <si>
+    <t>v8+v3+v11</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,6 +169,14 @@
       <color rgb="FF222222"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -177,42 +194,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
+        <fgColor rgb="FFFF33CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -384,55 +401,107 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF33CC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -741,134 +810,174 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31FC1CF8-1B6A-4984-991E-EEB5B52B0205}">
-  <dimension ref="B1:M19"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="8.88671875" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C1" s="12"/>
-    </row>
-    <row r="2" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="12"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="5" t="s">
+    <row r="1" spans="1:15" s="31" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1"/>
+      <c r="C1" s="32"/>
+    </row>
+    <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="31"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="M2" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C3" s="11" t="s">
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="20" t="s">
+      <c r="E3" s="12"/>
+      <c r="F3" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="21" t="s">
+      <c r="G3" s="12"/>
+      <c r="H3" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="19"/>
-      <c r="J3" s="22" t="s">
+      <c r="I3" s="12"/>
+      <c r="J3" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="19"/>
-      <c r="L3" s="23" t="s">
+      <c r="K3" s="12"/>
+      <c r="L3" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="24"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C4" s="11" t="s">
+      <c r="M3" s="14"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="31"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="26" t="s">
+      <c r="D4" s="15"/>
+      <c r="E4" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="25"/>
-      <c r="G4" s="27" t="s">
+      <c r="F4" s="15"/>
+      <c r="G4" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="25"/>
-      <c r="I4" s="28" t="s">
+      <c r="H4" s="15"/>
+      <c r="I4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="25"/>
-      <c r="K4" s="29" t="s">
+      <c r="J4" s="15"/>
+      <c r="K4" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="25"/>
-      <c r="M4" s="30" t="s">
+      <c r="L4" s="15"/>
+      <c r="M4" s="16" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C5" s="13" t="s">
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+    </row>
+    <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="31"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="15" t="s">
+      <c r="E5" s="9"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="8" t="s">
+      <c r="H5" s="3"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="14"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="16" t="s">
+      <c r="K5" s="9"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="10" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C7" t="s">
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+    </row>
+    <row r="6" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="31"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="31"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="37" t="s">
         <v>27</v>
       </c>
+      <c r="F7" s="31"/>
       <c r="G7" t="s">
         <v>28</v>
       </c>
@@ -876,156 +985,315 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C8" t="s">
+    <row r="8" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="31"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="34" t="s">
         <v>30</v>
       </c>
+      <c r="F8" s="31"/>
       <c r="G8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C9" t="s">
+    <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="31"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="38" t="s">
         <v>31</v>
       </c>
+      <c r="F9" s="31"/>
       <c r="G9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C10" t="s">
+    <row r="10" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="31"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="10" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="12" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C13" s="17"/>
-      <c r="D13" s="5" t="s">
+      <c r="F10" s="31"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="31"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="N11" s="31"/>
+    </row>
+    <row r="12" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="31"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+    </row>
+    <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="31"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I13" s="9" t="s">
+      <c r="I13" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J13" s="5" t="s">
+      <c r="J13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K13" s="9" t="s">
+      <c r="K13" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L13" s="5" t="s">
+      <c r="L13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M13" s="10" t="s">
+      <c r="M13" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C14" s="11" t="s">
+      <c r="N13" s="31"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="31"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="19"/>
-      <c r="F14" s="20" t="s">
+      <c r="E14" s="12"/>
+      <c r="F14" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="19"/>
-      <c r="H14" s="22" t="s">
+      <c r="G14" s="12"/>
+      <c r="H14" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="19"/>
-      <c r="J14" s="32" t="s">
+      <c r="I14" s="12"/>
+      <c r="J14" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="K14" s="19"/>
-      <c r="L14" s="33" t="s">
+      <c r="K14" s="12"/>
+      <c r="L14" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="M14" s="24"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C15" s="11" t="s">
+      <c r="M14" s="14"/>
+      <c r="N14" s="31"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="31"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="25"/>
-      <c r="E15" s="27" t="s">
+      <c r="D15" s="15"/>
+      <c r="E15" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="25"/>
-      <c r="G15" s="28" t="s">
+      <c r="F15" s="15"/>
+      <c r="G15" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="25"/>
-      <c r="I15" s="31" t="s">
+      <c r="H15" s="15"/>
+      <c r="I15" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="25"/>
-      <c r="K15" s="34" t="s">
+      <c r="J15" s="15"/>
+      <c r="K15" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="L15" s="25"/>
-      <c r="M15" s="36" t="s">
+      <c r="L15" s="15"/>
+      <c r="M15" s="27" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C16" s="13" t="s">
+      <c r="N15" s="31"/>
+    </row>
+    <row r="16" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="31"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="14"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="15" t="s">
+      <c r="E16" s="9"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="8" t="s">
+      <c r="H16" s="3"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="K16" s="14"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="35" t="s">
+      <c r="K16" s="9"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="10" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="19" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C19" s="37" t="s">
+      <c r="N16" s="31"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="31"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="31"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+    </row>
+    <row r="19" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="31"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="17" t="s">
         <v>36</v>
       </c>
+    </row>
+    <row r="20" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="31"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+    </row>
+    <row r="21" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="31"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+    </row>
+    <row r="22" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="31"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+    </row>
+    <row r="23" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="31"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+    </row>
+    <row r="24" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="31"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" s="31"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
